--- a/medicine/Enfance/Alice_Piguet/Alice_Piguet.xlsx
+++ b/medicine/Enfance/Alice_Piguet/Alice_Piguet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice Piguet (née Alice Odette Pourcherol le 16 septembre 1901 à Nîmes et morte le 24 juin 1993 à Paris 5e[1]) est une écrivaine de langue française, auteure de romans pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice Piguet (née Alice Odette Pourcherol le 16 septembre 1901 à Nîmes et morte le 24 juin 1993 à Paris 5e) est une écrivaine de langue française, auteure de romans pour la jeunesse.
 Sous le nom d’Alice de Chavannes, elle a aussi écrit des romans sentimentaux.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1945 : Thérèse et le Jardin. (Prix Jeunesse)
 1970 : Temps d'orage, Alice Piguet, éditions G. P. , collection Rouge et Or Souveraine no 2735, illustrations de Jacques Pecnard.
@@ -551,7 +565,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Jeunesse en 1945 pour Thérèse et le Jardin</t>
         </is>
